--- a/docs/diagrams/prototype.xlsx
+++ b/docs/diagrams/prototype.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="68">
   <si>
     <t>Nguyen Van A</t>
   </si>
@@ -199,6 +199,27 @@
   </si>
   <si>
     <t>trong 1 ngay 3 bua uong 3 bua khac nhau</t>
+  </si>
+  <si>
+    <t>Benh</t>
+  </si>
+  <si>
+    <t>Fat 3</t>
+  </si>
+  <si>
+    <t>Start time</t>
+  </si>
+  <si>
+    <t>End time</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Cho kham</t>
+  </si>
+  <si>
+    <t>Chua xac dinh</t>
   </si>
 </sst>
 </file>
@@ -209,7 +230,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -217,7 +238,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -533,6 +554,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -541,16 +565,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>163286</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>258535</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>312963</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:rowOff>176893</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -559,8 +583,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9320893" y="3429000"/>
-          <a:ext cx="2068286" cy="585107"/>
+          <a:off x="5075464" y="3810000"/>
+          <a:ext cx="1864178" cy="612322"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
           <a:avLst/>
@@ -595,16 +619,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>952500</xdr:colOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>966107</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>86591</xdr:rowOff>
+      <xdr:rowOff>127412</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>536864</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>523256</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>34636</xdr:rowOff>
+      <xdr:rowOff>75457</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -613,10 +637,64 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14322136" y="5784273"/>
-          <a:ext cx="640773" cy="1160318"/>
+          <a:off x="14056178" y="6332269"/>
+          <a:ext cx="740971" cy="1281545"/>
         </a:xfrm>
         <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="vi-VN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>179614</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179614</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>887185</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>2721</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Right Arrow 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12113078" y="3635828"/>
+          <a:ext cx="1864178" cy="612322"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
           <a:avLst/>
         </a:prstGeom>
       </xdr:spPr>
@@ -742,7 +820,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,7 +855,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -986,437 +1064,594 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:W60"/>
+  <dimension ref="A4:AA60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V35" sqref="V35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.75" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C4" s="1"/>
       <c r="G4" s="2"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="9" spans="3:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>
       <c r="H9" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="3:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="S10" s="1" t="s">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="W10" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="F12" s="16" t="s">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="I12" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17" t="s">
+      <c r="E12" s="17"/>
+      <c r="F12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="L12" s="18"/>
-      <c r="Q12" s="16" t="s">
+      <c r="G12" s="18"/>
+      <c r="L12" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17" t="s">
+      <c r="M12" s="17"/>
+      <c r="N12" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="T12" s="17" t="s">
+      <c r="O12" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17" t="s">
+      <c r="P12" s="17"/>
+      <c r="Q12" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="W12" s="18"/>
-    </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="4"/>
+      <c r="R12" s="18"/>
+      <c r="U12" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="X12" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA12" s="18"/>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="5"/>
+      <c r="U13" s="3"/>
       <c r="V13" s="4"/>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="3:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="Q14" s="3"/>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4" t="s">
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="5"/>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="T14" s="4" t="s">
+      <c r="O14" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="U14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="5"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="4"/>
-      <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="F15" s="3"/>
-      <c r="G15" s="4" t="s">
+      <c r="W14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4" t="s">
+      <c r="X14" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="5"/>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4" t="s">
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="Q15" s="3"/>
-      <c r="R15" s="4"/>
-      <c r="S15" s="4" t="s">
+      <c r="G15" s="5"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="T15" s="4">
+      <c r="O15" s="4">
         <v>22</v>
       </c>
-      <c r="U15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="5"/>
+      <c r="U15" s="3"/>
       <c r="V15" s="4"/>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="Q16" s="3"/>
-      <c r="R16" s="4"/>
-      <c r="S16" s="4" t="s">
+      <c r="W15" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="X15" s="4">
+        <v>22</v>
+      </c>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="5"/>
+    </row>
+    <row r="16" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="T16" s="4" t="s">
+      <c r="O16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="U16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="5"/>
+      <c r="U16" s="3"/>
       <c r="V16" s="4"/>
-      <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="3"/>
-      <c r="G17" s="11" t="s">
+      <c r="W16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="5"/>
+    </row>
+    <row r="17" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3"/>
+      <c r="B17" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4">
         <v>22</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="Q17" s="3"/>
-      <c r="R17" s="4"/>
-      <c r="S17" s="9" t="s">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="5"/>
+      <c r="U17" s="3"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="T17" s="4" t="s">
+      <c r="X17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="U17" s="4"/>
-      <c r="V17" s="4"/>
-      <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="5"/>
-      <c r="Q18" s="3"/>
-      <c r="R18" s="4"/>
-      <c r="S18" s="9" t="s">
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="5"/>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="5"/>
+      <c r="U18" s="3"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="T18" s="9" t="s">
+      <c r="X18" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="U18" s="4"/>
-      <c r="V18" s="4"/>
-      <c r="W18" s="5"/>
-    </row>
-    <row r="19" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F19" s="3"/>
-      <c r="G19" s="4" t="s">
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="5"/>
+    </row>
+    <row r="19" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
+      <c r="B19" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4">
         <v>24</v>
       </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
-      <c r="Q19" s="3"/>
-      <c r="S19" s="9" t="s">
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" t="s">
+        <v>64</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="R19" s="5"/>
+      <c r="U19" s="3"/>
+      <c r="W19" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="T19" s="9" t="s">
+      <c r="X19" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="U19" s="4"/>
-      <c r="V19" s="4"/>
-      <c r="W19" s="5"/>
-    </row>
-    <row r="20" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="5"/>
-      <c r="Q20" s="3"/>
-      <c r="T20" s="29" t="s">
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="5"/>
+    </row>
+    <row r="20" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="5"/>
+      <c r="L20" s="3"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="5"/>
+      <c r="U20" s="3"/>
+      <c r="X20" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="U20" s="4"/>
-      <c r="V20" s="4"/>
-      <c r="W20" s="5"/>
-    </row>
-    <row r="21" spans="3:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="C21" s="1"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="5"/>
-      <c r="Q21" s="3"/>
-      <c r="R21" s="4" t="s">
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="5"/>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="5"/>
+      <c r="L21" s="3"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="R21" s="5"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S21" s="4"/>
-      <c r="U21" s="4"/>
-      <c r="V21" s="4"/>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="5"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="4"/>
-      <c r="S22" s="4"/>
-      <c r="U22" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="5"/>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="5"/>
+      <c r="L22" s="3"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R22" s="5"/>
+      <c r="U22" s="3"/>
       <c r="V22" s="4"/>
-      <c r="W22" s="5"/>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="5"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" t="s">
+      <c r="W22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="5"/>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="5"/>
+      <c r="L23" s="3"/>
+      <c r="N23" s="4"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="4"/>
+      <c r="Q23" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="R23" s="5"/>
+      <c r="U23" s="3"/>
+      <c r="V23" t="s">
         <v>13</v>
       </c>
-      <c r="S23" s="4" t="s">
+      <c r="W23" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T23" t="s">
+      <c r="X23" t="s">
         <v>56</v>
       </c>
-      <c r="U23" s="4"/>
-      <c r="V23" s="4"/>
-      <c r="W23" s="5"/>
-    </row>
-    <row r="24" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="5"/>
-      <c r="Q24" s="3"/>
-      <c r="S24" s="4"/>
-      <c r="U24" s="4"/>
-      <c r="V24" s="4"/>
-      <c r="W24" s="5"/>
-    </row>
-    <row r="25" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F25" s="3"/>
-      <c r="G25" s="4" t="s">
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="5"/>
+    </row>
+    <row r="24" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="4"/>
+      <c r="N24" s="4"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="5"/>
+      <c r="U24" s="3"/>
+      <c r="W24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="5"/>
+    </row>
+    <row r="25" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="5"/>
-      <c r="Q25" s="3"/>
-      <c r="R25">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="4"/>
+      <c r="N25" s="4"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="4"/>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="5"/>
+      <c r="U25" s="3"/>
+      <c r="V25">
         <v>1</v>
       </c>
-      <c r="S25" s="13" t="s">
+      <c r="W25" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="U25" s="4"/>
-      <c r="V25" s="4"/>
-      <c r="W25" s="5"/>
-    </row>
-    <row r="26" spans="3:23" ht="15" x14ac:dyDescent="0.25">
-      <c r="C26" s="1"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="5"/>
-      <c r="Q26" s="3"/>
-      <c r="R26">
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="5"/>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="5"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="5"/>
+      <c r="U26" s="3"/>
+      <c r="V26">
         <v>2</v>
       </c>
-      <c r="S26" s="10">
+      <c r="W26" s="10">
         <v>42347</v>
       </c>
-      <c r="T26" s="4"/>
-      <c r="U26" s="4"/>
-      <c r="V26" s="4"/>
-      <c r="W26" s="5"/>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="5"/>
-      <c r="Q27" s="3"/>
-      <c r="R27">
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="5"/>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="5"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="5"/>
+      <c r="U27" s="3"/>
+      <c r="V27">
         <v>3</v>
       </c>
-      <c r="S27" s="12">
+      <c r="W27" s="12">
         <v>42317</v>
       </c>
-      <c r="T27" s="4"/>
-      <c r="U27" s="4"/>
-      <c r="V27" s="4"/>
-      <c r="W27" s="5"/>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="5"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="4"/>
-      <c r="S28" s="4"/>
-      <c r="T28" s="4"/>
-      <c r="U28" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="5"/>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="5"/>
+      <c r="U28" s="3"/>
       <c r="V28" s="4"/>
-      <c r="W28" s="5"/>
-    </row>
-    <row r="29" spans="3:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="5"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="4"/>
-      <c r="S29" s="4"/>
-      <c r="T29" s="4"/>
-      <c r="U29" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="5"/>
+    </row>
+    <row r="29" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="5"/>
+      <c r="L29" s="3"/>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="5"/>
+      <c r="U29" s="3"/>
       <c r="V29" s="4"/>
-      <c r="W29" s="5"/>
-    </row>
-    <row r="30" spans="3:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="5"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="4"/>
-      <c r="S30" s="15" t="s">
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="5"/>
+    </row>
+    <row r="30" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="5"/>
+      <c r="L30" s="3"/>
+      <c r="O30" s="4"/>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="5"/>
+      <c r="U30" s="3"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T30" s="4"/>
-      <c r="U30" s="4"/>
-      <c r="V30" s="4"/>
-      <c r="W30" s="5"/>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
-      <c r="F31" s="6"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="8"/>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="5"/>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31" s="6"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="8"/>
+      <c r="L31" s="6"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="8"/>
+      <c r="U31" s="6"/>
       <c r="V31" s="7"/>
-      <c r="W31" s="8"/>
-    </row>
-    <row r="41" spans="6:23" x14ac:dyDescent="0.2">
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="8"/>
+    </row>
+    <row r="41" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F41" s="16"/>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
@@ -1440,7 +1675,7 @@
       </c>
       <c r="W41" s="18"/>
     </row>
-    <row r="42" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F42" s="3"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
@@ -1456,7 +1691,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="5"/>
     </row>
-    <row r="43" spans="6:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F43" s="3"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
@@ -1472,7 +1707,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="5"/>
     </row>
-    <row r="44" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F44" s="3"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
@@ -1492,7 +1727,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="5"/>
     </row>
-    <row r="45" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
@@ -1512,7 +1747,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="5"/>
     </row>
-    <row r="46" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F46" s="3"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
@@ -1532,7 +1767,7 @@
       <c r="V46" s="4"/>
       <c r="W46" s="5"/>
     </row>
-    <row r="47" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F47" s="3"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
@@ -1552,7 +1787,7 @@
       <c r="V47" s="4"/>
       <c r="W47" s="5"/>
     </row>
-    <row r="48" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F48" s="3"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
@@ -1568,7 +1803,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="5"/>
     </row>
-    <row r="49" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F49" s="3"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
@@ -1584,7 +1819,7 @@
       <c r="V49" s="4"/>
       <c r="W49" s="5"/>
     </row>
-    <row r="50" spans="6:23" ht="15" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F50" s="3"/>
       <c r="G50" s="4"/>
       <c r="H50" s="9"/>
@@ -1604,7 +1839,7 @@
       <c r="V50" s="4"/>
       <c r="W50" s="5"/>
     </row>
-    <row r="51" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F51" s="3"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
@@ -1620,7 +1855,7 @@
       <c r="V51" s="4"/>
       <c r="W51" s="5"/>
     </row>
-    <row r="52" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F52" s="3"/>
       <c r="G52" s="4"/>
       <c r="H52" s="9"/>
@@ -1644,7 +1879,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F53" s="3"/>
       <c r="G53" s="4"/>
       <c r="H53" s="9"/>
@@ -1668,7 +1903,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="54" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="54" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F54" s="3"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
@@ -1692,7 +1927,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F55" s="3"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -1716,7 +1951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="56" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F56" s="3"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
@@ -1734,7 +1969,7 @@
       <c r="V56" s="4"/>
       <c r="W56" s="5"/>
     </row>
-    <row r="57" spans="6:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F57" s="3"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
@@ -1786,7 +2021,7 @@
       <c r="V59" s="4"/>
       <c r="W59" s="5"/>
     </row>
-    <row r="60" spans="6:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F60" s="6"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
@@ -1817,16 +2052,16 @@
       <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="5:11" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="5:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E4" s="20"/>
       <c r="F4" s="21"/>
       <c r="G4" s="21"/>
       <c r="H4" s="22"/>
     </row>
-    <row r="5" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E5" s="23" t="s">
         <v>34</v>
       </c>
@@ -1834,7 +2069,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="24"/>
     </row>
-    <row r="6" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E6" s="23" t="s">
         <v>35</v>
       </c>
@@ -1842,7 +2077,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="24"/>
     </row>
-    <row r="7" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E7" s="23" t="s">
         <v>36</v>
       </c>
@@ -1853,7 +2088,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E8" s="23"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
@@ -1862,7 +2097,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E9" s="23" t="s">
         <v>29</v>
       </c>
@@ -1870,7 +2105,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="24"/>
     </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E10" s="23"/>
       <c r="F10" s="28">
         <v>0.3125</v>
@@ -1878,7 +2113,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="24"/>
     </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E11" s="23" t="s">
         <v>30</v>
       </c>
@@ -1886,7 +2121,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="24"/>
     </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E12" s="23"/>
       <c r="F12" s="28">
         <v>0.5</v>
@@ -1894,7 +2129,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="24"/>
     </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E13" s="23" t="s">
         <v>31</v>
       </c>
@@ -1902,7 +2137,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="24"/>
     </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E14" s="23"/>
       <c r="F14" s="28">
         <v>0.77083333333333337</v>
@@ -1910,7 +2145,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="24"/>
     </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E15" s="23" t="s">
         <v>32</v>
       </c>
@@ -1918,7 +2153,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="24"/>
     </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E16" s="23"/>
       <c r="F16" s="28">
         <v>0.70833333333333337</v>
@@ -1926,13 +2161,13 @@
       <c r="G16" s="4"/>
       <c r="H16" s="24"/>
     </row>
-    <row r="17" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E17" s="23"/>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="24"/>
     </row>
-    <row r="18" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E18" s="23"/>
       <c r="F18" s="4" t="s">
         <v>37</v>
@@ -1940,13 +2175,13 @@
       <c r="G18" s="4"/>
       <c r="H18" s="24"/>
     </row>
-    <row r="19" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E19" s="23"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="24"/>
     </row>
-    <row r="20" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E20" s="23"/>
       <c r="F20" s="4" t="s">
         <v>33</v>
@@ -1954,44 +2189,44 @@
       <c r="G20" s="4"/>
       <c r="H20" s="24"/>
     </row>
-    <row r="21" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E21" s="23"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="24"/>
     </row>
-    <row r="22" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E22" s="23"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
       <c r="H22" s="24"/>
     </row>
-    <row r="23" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E23" s="23"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="24"/>
     </row>
-    <row r="24" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E24" s="23"/>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="24"/>
     </row>
-    <row r="25" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="E25" s="23"/>
       <c r="F25" s="4"/>
       <c r="G25" s="4"/>
       <c r="H25" s="24"/>
     </row>
-    <row r="26" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E26" s="25"/>
       <c r="F26" s="26"/>
       <c r="G26" s="26"/>
       <c r="H26" s="27"/>
     </row>
-    <row r="30" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B31" s="20"/>
       <c r="C31" s="21"/>
       <c r="D31" s="21"/>
@@ -2009,7 +2244,7 @@
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
     </row>
-    <row r="32" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" s="23"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
@@ -2029,7 +2264,7 @@
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B33" s="23"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
@@ -2049,7 +2284,7 @@
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B34" s="23"/>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2066,7 +2301,7 @@
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
     </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B35" s="23"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
@@ -2086,7 +2321,7 @@
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
     </row>
-    <row r="36" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B36" s="23"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
@@ -2108,7 +2343,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B37" s="23"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
@@ -2126,7 +2361,7 @@
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B38" s="23"/>
       <c r="C38" s="4" t="s">
         <v>49</v>
@@ -2146,7 +2381,7 @@
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B39" s="23"/>
       <c r="C39" s="4" t="s">
         <v>50</v>
@@ -2166,7 +2401,7 @@
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
     </row>
-    <row r="40" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="23"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2184,7 +2419,7 @@
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
     </row>
-    <row r="41" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B41" s="23"/>
       <c r="C41" s="11" t="s">
         <v>51</v>
@@ -2204,7 +2439,7 @@
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
     </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B42" s="23"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
@@ -2222,7 +2457,7 @@
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
     </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B43" s="23"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
@@ -2240,7 +2475,7 @@
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B44" s="23"/>
       <c r="C44" s="4"/>
       <c r="D44" s="4"/>
@@ -2258,7 +2493,7 @@
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B45" s="23"/>
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
@@ -2276,7 +2511,7 @@
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B46" s="23"/>
       <c r="C46" s="4"/>
       <c r="D46" s="4"/>
@@ -2294,7 +2529,7 @@
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B47" s="23"/>
       <c r="C47" s="4"/>
       <c r="D47" s="4"/>
@@ -2312,7 +2547,7 @@
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B48" s="23"/>
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
@@ -2330,7 +2565,7 @@
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
     </row>
-    <row r="49" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B49" s="23"/>
       <c r="C49" s="4"/>
       <c r="D49" s="4"/>
@@ -2348,7 +2583,7 @@
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
     </row>
-    <row r="50" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
@@ -2366,30 +2601,30 @@
       <c r="V50" s="4"/>
       <c r="W50" s="4"/>
     </row>
-    <row r="51" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:23" x14ac:dyDescent="0.25">
       <c r="N51" s="4"/>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
     </row>
-    <row r="52" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:23" x14ac:dyDescent="0.25">
       <c r="N52" s="4"/>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
     </row>
-    <row r="53" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:23" x14ac:dyDescent="0.25">
       <c r="N53" s="4"/>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
     </row>
-    <row r="63" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="P63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="16:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="16:16" x14ac:dyDescent="0.25">
       <c r="P65" t="s">
         <v>59</v>
       </c>
@@ -2406,7 +2641,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
